--- a/resources/experiment 2/metrics/MAPE/upto time/Fallo Cardiaco (UPTO).xlsx
+++ b/resources/experiment 2/metrics/MAPE/upto time/Fallo Cardiaco (UPTO).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5017680469586078</v>
+        <v>5017680469586076</v>
       </c>
       <c r="C2" t="n">
-        <v>5017680469586078</v>
+        <v>5017680469586075</v>
       </c>
       <c r="D2" t="n">
-        <v>5017680469586078</v>
+        <v>5017680469586075</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4615783635556.164</v>
+        <v>140389428279681.2</v>
       </c>
       <c r="C3" t="n">
-        <v>4615987981293.718</v>
+        <v>119519752865154.6</v>
       </c>
       <c r="D3" t="n">
-        <v>4615987981293.718</v>
+        <v>567645782670764.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131083206274883.8</v>
+        <v>3083776939523.741</v>
       </c>
       <c r="C4" t="n">
-        <v>131074176362697.8</v>
+        <v>3311861470233.196</v>
       </c>
       <c r="D4" t="n">
-        <v>131074176362697.8</v>
+        <v>130559512434404.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2070889374506998</v>
+        <v>298743487311586.4</v>
       </c>
       <c r="C5" t="n">
-        <v>2070889374506998</v>
+        <v>407279260915297.5</v>
       </c>
       <c r="D5" t="n">
-        <v>2070889374506998</v>
+        <v>2788234075976529</v>
       </c>
     </row>
   </sheetData>
